--- a/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
@@ -543,12 +543,12 @@
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
+++ b/Tests/Validation/Wheat/data/FAR RRC W22-03.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +547,7 @@
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -709,7 +710,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -764,7 +765,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -799,7 +800,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -834,7 +835,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -869,7 +870,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -912,7 +913,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -967,7 +968,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1002,7 +1003,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1037,7 +1038,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1072,7 +1073,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1115,7 +1116,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1170,7 +1171,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1205,7 +1206,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1244,7 +1245,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1279,7 +1280,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1314,7 +1315,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44823</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1349,7 +1350,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1384,7 +1385,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1427,7 +1428,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1482,7 +1483,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1517,7 +1518,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1556,7 +1557,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1591,7 +1592,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1626,7 +1627,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44823</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1661,7 +1662,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1696,7 +1697,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1739,7 +1740,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1794,7 +1795,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1829,7 +1830,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1868,7 +1869,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1903,7 +1904,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1938,7 +1939,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1973,7 +1974,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -2016,7 +2017,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -2071,7 +2072,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2106,7 +2107,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2141,7 +2142,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2176,7 +2177,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44823</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2211,7 +2212,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2246,7 +2247,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2289,7 +2290,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2344,7 +2345,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2379,7 +2380,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2414,7 +2415,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2449,7 +2450,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44823</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2484,7 +2485,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2519,7 +2520,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -2562,7 +2563,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2617,7 +2618,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2652,7 +2653,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2687,7 +2688,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2722,7 +2723,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44823</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2757,7 +2758,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2792,7 +2793,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2835,7 +2836,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2890,7 +2891,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2929,7 +2930,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2964,7 +2965,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2999,7 +3000,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3034,7 +3035,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3077,7 +3078,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3132,7 +3133,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3171,7 +3172,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3206,7 +3207,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3241,7 +3242,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3276,7 +3277,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3319,7 +3320,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3374,7 +3375,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3413,7 +3414,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3448,7 +3449,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44798</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3483,7 +3484,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3518,7 +3519,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3561,7 +3562,7 @@
           <t>FAR RRC W22-03CanopyGS16 defFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3616,7 +3617,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3651,7 +3652,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3686,7 +3687,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3721,7 +3722,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3764,7 +3765,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3819,7 +3820,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3854,7 +3855,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3889,7 +3890,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3924,7 +3925,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3967,7 +3968,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4022,7 +4023,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4057,7 +4058,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4092,7 +4093,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4127,7 +4128,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -4170,7 +4171,7 @@
           <t>FAR RRC W22-03CanopySplit NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4225,7 +4226,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4260,7 +4261,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4295,7 +4296,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4330,7 +4331,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4365,7 +4366,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4408,7 +4409,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4463,7 +4464,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4498,7 +4499,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4533,7 +4534,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4568,7 +4569,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4603,7 +4604,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4646,7 +4647,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4701,7 +4702,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4736,7 +4737,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4771,7 +4772,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4806,7 +4807,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4841,7 +4842,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4884,7 +4885,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4939,7 +4940,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4974,7 +4975,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5009,7 +5010,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5044,7 +5045,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5087,7 +5088,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvCesario</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -5142,7 +5143,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5177,7 +5178,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5212,7 +5213,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5247,7 +5248,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5290,7 +5291,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5345,7 +5346,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5380,7 +5381,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5415,7 +5416,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5450,7 +5451,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5493,7 +5494,7 @@
           <t>FAR RRC W22-03CanopyAdd NFungicideSingleCvScepter</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -5548,7 +5549,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5583,7 +5584,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5618,7 +5619,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5653,7 +5654,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5688,7 +5689,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5731,7 +5732,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvCesario</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5786,7 +5787,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5821,7 +5822,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5856,7 +5857,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5891,7 +5892,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5926,7 +5927,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -5969,7 +5970,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -6024,7 +6025,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44705</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6059,7 +6060,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44732</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6094,7 +6095,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44783</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6129,7 +6130,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44824</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6164,7 +6165,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44914</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -6207,7 +6208,7 @@
           <t>FAR RRC W22-03CanopyPGRFungicideFullCvScepter</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C144" t="inlineStr">
